--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decaturplastics-my.sharepoint.com/personal/nrousseaux_decaturplastics_mx/Documents/Flock AI/Flock Report WebApp/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{0DACA83B-43DF-412A-9E85-71C746A75BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8CF055-A058-4A7E-A2D1-CC03ECD54D04}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{0DACA83B-43DF-412A-9E85-71C746A75BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A93CD55-B182-4C27-81E6-C5003C10887D}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{183B60C8-E604-4B1F-88DA-A7AA7B18F444}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>Part_Description</t>
   </si>
   <si>
-    <t>class_name</t>
+    <t>Class_Name</t>
   </si>
 </sst>
 </file>
@@ -231,10 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,9 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB33C9-0D93-4B55-A698-503F4A3AA40F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
